--- a/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D3A803-DA64-49A6-8250-CBE01C9BC233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A67540-768F-4ECD-A312-3644C2582798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AF17EAB-61DD-4730-B05A-CCA7C136E903}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15B859B4-D32F-42B1-9154-294E62F1FCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,19%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>Dos o tres cucharadas</t>
@@ -104,28 +104,28 @@
     <t>13,72%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>Cuatro o más cucharadas</t>
@@ -134,28 +134,28 @@
     <t>79,09%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>79,93%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>16,82%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>52,45%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -251,19 +251,19 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>15,35%</t>
@@ -272,556 +272,547 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>18,08%</t>
+    <t>18,22%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>42,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AB31EF-D5D7-4DDB-AA4B-3716B8E617AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0F4AAC-6A7E-44E2-B924-2E2C7CC14817}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2065,7 +2056,7 @@
         <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2071,13 @@
         <v>144958</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>261</v>
@@ -2095,13 +2086,13 @@
         <v>198594</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>385</v>
@@ -2110,13 +2101,13 @@
         <v>343552</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,7 +2163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2175,13 @@
         <v>12909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2199,13 +2190,13 @@
         <v>7070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2214,13 +2205,13 @@
         <v>19979</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2226,13 @@
         <v>144453</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>360</v>
@@ -2250,13 +2241,13 @@
         <v>168935</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -2265,13 +2256,13 @@
         <v>313388</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2277,13 @@
         <v>38739</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -2301,13 +2292,13 @@
         <v>52064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -2316,13 +2307,13 @@
         <v>90803</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2369,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2381,13 @@
         <v>44711</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2405,13 +2396,13 @@
         <v>94241</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
@@ -2420,7 +2411,7 @@
         <v>138953</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>160</v>
@@ -2495,10 +2486,10 @@
         <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -2507,13 +2498,13 @@
         <v>54004</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -2522,13 +2513,13 @@
         <v>156550</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2587,13 @@
         <v>68309</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -2611,13 +2602,13 @@
         <v>70692</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>168</v>
@@ -2626,13 +2617,13 @@
         <v>139001</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2638,13 @@
         <v>289845</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>478</v>
@@ -2662,13 +2653,13 @@
         <v>357050</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>751</v>
@@ -2680,10 +2671,10 @@
         <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2689,13 @@
         <v>245818</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>364</v>
@@ -2713,13 +2704,13 @@
         <v>363565</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>603</v>
@@ -2728,13 +2719,13 @@
         <v>609384</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2802,13 +2793,13 @@
         <v>188646</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>221</v>
@@ -2817,13 +2808,13 @@
         <v>172699</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>402</v>
@@ -2832,13 +2823,13 @@
         <v>361345</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2844,13 @@
         <v>480650</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>642</v>
@@ -2868,13 +2859,13 @@
         <v>518817</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1096</v>
@@ -2883,13 +2874,13 @@
         <v>999467</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2895,13 @@
         <v>182455</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>192</v>
@@ -2919,13 +2910,13 @@
         <v>169714</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>313</v>
@@ -2934,13 +2925,13 @@
         <v>352169</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +2999,13 @@
         <v>467662</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>771</v>
@@ -3023,13 +3014,13 @@
         <v>544058</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>1262</v>
@@ -3038,13 +3029,13 @@
         <v>1011720</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3050,13 @@
         <v>1509145</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>2419</v>
@@ -3074,13 +3065,13 @@
         <v>1680681</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>3941</v>
@@ -3089,13 +3080,13 @@
         <v>3189826</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3101,13 @@
         <v>1234499</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>1968</v>
@@ -3125,13 +3116,13 @@
         <v>1436167</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>3198</v>
@@ -3140,13 +3131,13 @@
         <v>2670666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A67540-768F-4ECD-A312-3644C2582798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73D3B24-B0FB-4A48-A327-57F42BA0D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15B859B4-D32F-42B1-9154-294E62F1FCE9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A44D0691-90C6-43CF-AAE5-DBBE12F0F4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -71,748 +71,754 @@
     <t>Menos de dos cucharadas</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>Dos o tres cucharadas</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>Cuatro o más cucharadas</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>Dos o tres cucharadas</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>Cuatro o más cucharadas</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0F4AAC-6A7E-44E2-B924-2E2C7CC14817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D356A6-7195-4EE5-A0EB-665E48660F6E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>18711</v>
+        <v>21552</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1369,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>23647</v>
+        <v>25355</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1384,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>42358</v>
+        <v>46907</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>35722</v>
+        <v>41037</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="I5" s="7">
-        <v>30823</v>
+        <v>32384</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1435,7 @@
         <v>103</v>
       </c>
       <c r="N5" s="7">
-        <v>66545</v>
+        <v>73421</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1456,7 @@
         <v>254</v>
       </c>
       <c r="D6" s="7">
-        <v>205865</v>
+        <v>248854</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1465,7 +1471,7 @@
         <v>423</v>
       </c>
       <c r="I6" s="7">
-        <v>216933</v>
+        <v>231896</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1486,7 @@
         <v>677</v>
       </c>
       <c r="N6" s="7">
-        <v>422797</v>
+        <v>480749</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1501,7 +1507,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1516,7 +1522,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1531,7 +1537,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1554,7 +1560,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="7">
-        <v>75604</v>
+        <v>75522</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1569,7 +1575,7 @@
         <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>91534</v>
+        <v>84969</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1584,7 +1590,7 @@
         <v>168</v>
       </c>
       <c r="N8" s="7">
-        <v>167138</v>
+        <v>160491</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1605,7 +1611,7 @@
         <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>235727</v>
+        <v>234522</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1620,7 +1626,7 @@
         <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>245745</v>
+        <v>227257</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1635,7 +1641,7 @@
         <v>503</v>
       </c>
       <c r="N9" s="7">
-        <v>481472</v>
+        <v>461779</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1656,7 +1662,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>138090</v>
+        <v>136271</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1671,7 +1677,7 @@
         <v>219</v>
       </c>
       <c r="I10" s="7">
-        <v>162917</v>
+        <v>151986</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1686,7 +1692,7 @@
         <v>321</v>
       </c>
       <c r="N10" s="7">
-        <v>301007</v>
+        <v>288257</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1707,7 +1713,7 @@
         <v>336</v>
       </c>
       <c r="D11" s="7">
-        <v>449421</v>
+        <v>446315</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1722,7 +1728,7 @@
         <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>500196</v>
+        <v>464212</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1743,7 @@
         <v>992</v>
       </c>
       <c r="N11" s="7">
-        <v>949617</v>
+        <v>910527</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1760,7 +1766,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>41387</v>
+        <v>41197</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1775,7 +1781,7 @@
         <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>64699</v>
+        <v>60347</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1790,7 +1796,7 @@
         <v>133</v>
       </c>
       <c r="N12" s="7">
-        <v>106086</v>
+        <v>101544</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1811,7 +1817,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>103122</v>
+        <v>101252</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1826,7 +1832,7 @@
         <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>87295</v>
+        <v>81647</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1841,7 +1847,7 @@
         <v>247</v>
       </c>
       <c r="N13" s="7">
-        <v>190417</v>
+        <v>182899</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1862,7 +1868,7 @@
         <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>176030</v>
+        <v>171973</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1877,7 +1883,7 @@
         <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>218376</v>
+        <v>204424</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1892,7 +1898,7 @@
         <v>509</v>
       </c>
       <c r="N14" s="7">
-        <v>394405</v>
+        <v>376397</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1913,7 +1919,7 @@
         <v>358</v>
       </c>
       <c r="D15" s="7">
-        <v>320539</v>
+        <v>314422</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1928,7 +1934,7 @@
         <v>531</v>
       </c>
       <c r="I15" s="7">
-        <v>370370</v>
+        <v>346417</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1943,7 +1949,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>690909</v>
+        <v>660840</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1966,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>17384</v>
+        <v>16747</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1981,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>19476</v>
+        <v>18375</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -1996,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>36860</v>
+        <v>35122</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2017,7 +2023,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>91047</v>
+        <v>87703</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2032,7 +2038,7 @@
         <v>205</v>
       </c>
       <c r="I17" s="7">
-        <v>145238</v>
+        <v>157738</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2047,7 +2053,7 @@
         <v>298</v>
       </c>
       <c r="N17" s="7">
-        <v>236285</v>
+        <v>245441</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2068,7 +2074,7 @@
         <v>124</v>
       </c>
       <c r="D18" s="7">
-        <v>144958</v>
+        <v>139907</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2083,7 +2089,7 @@
         <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>198594</v>
+        <v>239410</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2098,7 +2104,7 @@
         <v>385</v>
       </c>
       <c r="N18" s="7">
-        <v>343552</v>
+        <v>379317</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2119,7 +2125,7 @@
         <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>253389</v>
+        <v>244357</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2134,7 +2140,7 @@
         <v>491</v>
       </c>
       <c r="I19" s="7">
-        <v>363309</v>
+        <v>415523</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2149,7 +2155,7 @@
         <v>726</v>
       </c>
       <c r="N19" s="7">
-        <v>616698</v>
+        <v>659879</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2172,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>12909</v>
+        <v>11671</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -2187,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>7070</v>
+        <v>6436</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -2202,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>19979</v>
+        <v>18107</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2223,7 +2229,7 @@
         <v>200</v>
       </c>
       <c r="D21" s="7">
-        <v>144453</v>
+        <v>130968</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>135</v>
@@ -2238,7 +2244,7 @@
         <v>360</v>
       </c>
       <c r="I21" s="7">
-        <v>168935</v>
+        <v>151649</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>138</v>
@@ -2253,7 +2259,7 @@
         <v>560</v>
       </c>
       <c r="N21" s="7">
-        <v>313388</v>
+        <v>282618</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>141</v>
@@ -2274,7 +2280,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>38739</v>
+        <v>35503</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>144</v>
@@ -2289,7 +2295,7 @@
         <v>108</v>
       </c>
       <c r="I22" s="7">
-        <v>52064</v>
+        <v>47004</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>147</v>
@@ -2304,16 +2310,16 @@
         <v>164</v>
       </c>
       <c r="N22" s="7">
-        <v>90803</v>
+        <v>82507</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,7 +2331,7 @@
         <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>196101</v>
+        <v>178142</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2340,7 +2346,7 @@
         <v>486</v>
       </c>
       <c r="I23" s="7">
-        <v>228069</v>
+        <v>205089</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2355,7 +2361,7 @@
         <v>764</v>
       </c>
       <c r="N23" s="7">
-        <v>424170</v>
+        <v>383231</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2369,7 +2375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2378,46 +2384,46 @@
         <v>69</v>
       </c>
       <c r="D24" s="7">
-        <v>44711</v>
+        <v>44140</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
       </c>
       <c r="I24" s="7">
-        <v>94241</v>
+        <v>88116</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
       </c>
       <c r="N24" s="7">
-        <v>138953</v>
+        <v>132256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,46 +2435,46 @@
         <v>165</v>
       </c>
       <c r="D25" s="7">
-        <v>128577</v>
+        <v>125059</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
       </c>
       <c r="I25" s="7">
-        <v>126777</v>
+        <v>118132</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>383</v>
       </c>
       <c r="N25" s="7">
-        <v>255355</v>
+        <v>243191</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2486,13 @@
         <v>135</v>
       </c>
       <c r="D26" s="7">
-        <v>102545</v>
+        <v>99114</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>172</v>
@@ -2495,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="I26" s="7">
-        <v>54004</v>
+        <v>50252</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>173</v>
@@ -2510,7 +2516,7 @@
         <v>226</v>
       </c>
       <c r="N26" s="7">
-        <v>156550</v>
+        <v>149366</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>176</v>
@@ -2531,7 +2537,7 @@
         <v>369</v>
       </c>
       <c r="D27" s="7">
-        <v>275834</v>
+        <v>268313</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2546,7 +2552,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>275023</v>
+        <v>256500</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2561,7 +2567,7 @@
         <v>828</v>
       </c>
       <c r="N27" s="7">
-        <v>550857</v>
+        <v>524813</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2584,7 +2590,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>68309</v>
+        <v>71230</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>180</v>
@@ -2599,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="I28" s="7">
-        <v>70692</v>
+        <v>65022</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>183</v>
@@ -2614,7 +2620,7 @@
         <v>168</v>
       </c>
       <c r="N28" s="7">
-        <v>139001</v>
+        <v>136253</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>186</v>
@@ -2623,7 +2629,7 @@
         <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,46 +2641,46 @@
         <v>273</v>
       </c>
       <c r="D29" s="7">
-        <v>289845</v>
+        <v>286059</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>478</v>
       </c>
       <c r="I29" s="7">
-        <v>357050</v>
+        <v>332949</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>751</v>
       </c>
       <c r="N29" s="7">
-        <v>646895</v>
+        <v>619008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,46 +2692,46 @@
         <v>239</v>
       </c>
       <c r="D30" s="7">
-        <v>245818</v>
+        <v>241987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>364</v>
       </c>
       <c r="I30" s="7">
-        <v>363565</v>
+        <v>439577</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>603</v>
       </c>
       <c r="N30" s="7">
-        <v>609384</v>
+        <v>681564</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2743,7 @@
         <v>580</v>
       </c>
       <c r="D31" s="7">
-        <v>603973</v>
+        <v>599277</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2752,7 +2758,7 @@
         <v>942</v>
       </c>
       <c r="I31" s="7">
-        <v>791306</v>
+        <v>837548</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2767,7 +2773,7 @@
         <v>1522</v>
       </c>
       <c r="N31" s="7">
-        <v>1395280</v>
+        <v>1436824</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2790,46 +2796,46 @@
         <v>181</v>
       </c>
       <c r="D32" s="7">
-        <v>188646</v>
+        <v>159138</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>221</v>
       </c>
       <c r="I32" s="7">
-        <v>172699</v>
+        <v>143874</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>402</v>
       </c>
       <c r="N32" s="7">
-        <v>361345</v>
+        <v>303012</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,46 +2847,46 @@
         <v>454</v>
       </c>
       <c r="D33" s="7">
-        <v>480650</v>
+        <v>407824</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>642</v>
       </c>
       <c r="I33" s="7">
-        <v>518817</v>
+        <v>429482</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1096</v>
       </c>
       <c r="N33" s="7">
-        <v>999467</v>
+        <v>837305</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,46 +2898,46 @@
         <v>121</v>
       </c>
       <c r="D34" s="7">
-        <v>182455</v>
+        <v>355378</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>192</v>
       </c>
       <c r="I34" s="7">
-        <v>169714</v>
+        <v>138556</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>313</v>
       </c>
       <c r="N34" s="7">
-        <v>352169</v>
+        <v>493935</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2949,7 @@
         <v>756</v>
       </c>
       <c r="D35" s="7">
-        <v>851751</v>
+        <v>922340</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2958,7 +2964,7 @@
         <v>1055</v>
       </c>
       <c r="I35" s="7">
-        <v>861229</v>
+        <v>711912</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2973,7 +2979,7 @@
         <v>1811</v>
       </c>
       <c r="N35" s="7">
-        <v>1712980</v>
+        <v>1634252</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2996,46 +3002,46 @@
         <v>491</v>
       </c>
       <c r="D36" s="7">
-        <v>467662</v>
+        <v>441198</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>771</v>
       </c>
       <c r="I36" s="7">
-        <v>544058</v>
+        <v>492494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>1262</v>
       </c>
       <c r="N36" s="7">
-        <v>1011720</v>
+        <v>933691</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,46 +3053,46 @@
         <v>1522</v>
       </c>
       <c r="D37" s="7">
-        <v>1509145</v>
+        <v>1414425</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>2419</v>
       </c>
       <c r="I37" s="7">
-        <v>1680681</v>
+        <v>1531237</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>3941</v>
       </c>
       <c r="N37" s="7">
-        <v>3189826</v>
+        <v>2945662</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,46 +3104,46 @@
         <v>1230</v>
       </c>
       <c r="D38" s="7">
-        <v>1234499</v>
+        <v>1428987</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1968</v>
       </c>
       <c r="I38" s="7">
-        <v>1436167</v>
+        <v>1503105</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>3198</v>
       </c>
       <c r="N38" s="7">
-        <v>2670666</v>
+        <v>2932092</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3155,7 @@
         <v>3243</v>
       </c>
       <c r="D39" s="7">
-        <v>3211306</v>
+        <v>3284609</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3164,7 +3170,7 @@
         <v>5158</v>
       </c>
       <c r="I39" s="7">
-        <v>3660906</v>
+        <v>3526836</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3179,7 +3185,7 @@
         <v>8401</v>
       </c>
       <c r="N39" s="7">
-        <v>6872212</v>
+        <v>6811445</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
